--- a/data/hotels_by_city/Houston/Houston_shard_363.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_363.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="616">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10666840-Reviews-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Home2-Suites-By-Hilton-Houston-Energy-Corridor.h15874647.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1734 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r602990577-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10666840</t>
+  </si>
+  <si>
+    <t>602990577</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Outstanding customer service and convenience</t>
+  </si>
+  <si>
+    <t>The staff is very courteous, humble and professional.   They are always willing to go to the extra mile.  I am a vegetarian and they did a wonderful job in accommodating my breakfast needs.  The hotel is located very close to my work location and hence, I will return again when I am on a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>The staff is very courteous, humble and professional.   They are always willing to go to the extra mile.  I am a vegetarian and they did a wonderful job in accommodating my breakfast needs.  The hotel is located very close to my work location and hence, I will return again when I am on a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r601304011-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601304011</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Amazing Experience at Home2 Suites by Hilton. Staff was exceptional. Big rooms with full kitchen.</t>
+  </si>
+  <si>
+    <t>Amazing Experience at Home2 Suites by Hilton. Staff was exceptional. Big rooms with full kitchen. Evening snack and shuttle service are incing on the cake. Except location, everything exceeded expectations!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Amazing Experience at Home2 Suites by Hilton. Staff was exceptional. Big rooms with full kitchen. Evening snack and shuttle service are incing on the cake. Except location, everything exceeded expectations!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r597495334-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597495334</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Baseball Tournamnte</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and cozy.  Awesome breakfast variety.  I would be willing to look into using this hotel chain again.  Very nice facilities.  The size of the room was very roomy as well.  The kitchen area had every appliance needed.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and cozy.  Awesome breakfast variety.  I would be willing to look into using this hotel chain again.  Very nice facilities.  The size of the room was very roomy as well.  The kitchen area had every appliance needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r595103463-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595103463</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Great overall experience</t>
+  </si>
+  <si>
+    <t>I enjoyed every moment I spent at this hotel. I did not have any issue. Staff was very friendly. Room was very clean. The price for a room is well worth the expense. I would definitely recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I enjoyed every moment I spent at this hotel. I did not have any issue. Staff was very friendly. Room was very clean. The price for a room is well worth the expense. I would definitely recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r594449369-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594449369</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>We were very satisfied with our stay here.  The lobby was very clean and modern, so it made a great first impression.  Our room was very clean and had more appliances than I expected.  We didn't need them, but I noted it for future stays.  When booking your room, you'll want to avoid any rooms directly over the main entrance.  There's an outdoor lounge area right next to it and it was pretty noisy until about 11pm.  Great hot and cold breakfast options.  Our party of 6 was very comfortable and we'd definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were very satisfied with our stay here.  The lobby was very clean and modern, so it made a great first impression.  Our room was very clean and had more appliances than I expected.  We didn't need them, but I noted it for future stays.  When booking your room, you'll want to avoid any rooms directly over the main entrance.  There's an outdoor lounge area right next to it and it was pretty noisy until about 11pm.  Great hot and cold breakfast options.  Our party of 6 was very comfortable and we'd definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r593767630-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593767630</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a great location very close to highway access and restaurants. Great size for traveling with family or friends. Second time staying at this location. Would definitely recommend to friends and stay here again when traveling to Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is a great location very close to highway access and restaurants. Great size for traveling with family or friends. Second time staying at this location. Would definitely recommend to friends and stay here again when traveling to Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r591044930-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591044930</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Greatness place</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed our stay at this property. It was clean and inviting. Rooms are spacious. Staff was friendly. Beds were comfortable and it’s near great shopping and Baseball USA. Kids loved the pool because it was larger than your typical hotel pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Thoroughly enjoyed our stay at this property. It was clean and inviting. Rooms are spacious. Staff was friendly. Beds were comfortable and it’s near great shopping and Baseball USA. Kids loved the pool because it was larger than your typical hotel pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r591015006-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591015006</t>
+  </si>
+  <si>
+    <t>Baseball boys’ stay</t>
+  </si>
+  <si>
+    <t>Stayed for a baseball tournament. Great to have the large room with Stayed for a baseball tournament with out ten. The room was large and the kitchenette very convenient. aThe pool was fun at night-closed too early in my opinion though. No pool towels available. Overall a great place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r590056820-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590056820</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Horrible customer service</t>
+  </si>
+  <si>
+    <t>Upon arrival at front desk agent was amazing. He welcomed me with a smile on his face, acknowledged me as a member. Very friendly spirit. Over night guy was horrible. He was soo rude. I was very unhappy with my stay at this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Upon arrival at front desk agent was amazing. He welcomed me with a smile on his face, acknowledged me as a member. Very friendly spirit. Over night guy was horrible. He was soo rude. I was very unhappy with my stay at this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r585141153-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585141153</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>No Rubber Curtains!</t>
+  </si>
+  <si>
+    <t>The only qualm I have was the room was very dark upon entering and the room entry hallway light switch was not easy to locate.  That said, I was happy to notice the absence of those hideous rubber curtains.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r584148363-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584148363</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Great selection</t>
+  </si>
+  <si>
+    <t>Great location and great price. Staff was very friendly. Rooms were very nice. I would stay here again with my family or by myself. I would recommend this hotel to my family and friends for future stays. MoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Great location and great price. Staff was very friendly. Rooms were very nice. I would stay here again with my family or by myself. I would recommend this hotel to my family and friends for future stays. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r581113972-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581113972</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Overall disappointing experience.</t>
+  </si>
+  <si>
+    <t>Being placed in a room that was not clean tainted the entire experience. There were hairs on the floor, towels and under the dirty soap dish. After showing the front desk person these things, I checked the bed while they witnessed (I've learned to do this!) Low and behold, the bed had only been straightened (sheets NOT changed!) from the previous guest. Appalling! I was moved quickly to another room, which appeared to be clean. But the damage was done. The manager also apologized the next day, was very friendly and told me to come to him if I need anything.The eggs were very dry, bacon seemed very cheap and a little undercooked. Thursday morning was the only day the eggs were not dry and were actually quite good. The milk was kept in a small fridge on the floor, which was very difficult for me to reach, being 5'11MoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Being placed in a room that was not clean tainted the entire experience. There were hairs on the floor, towels and under the dirty soap dish. After showing the front desk person these things, I checked the bed while they witnessed (I've learned to do this!) Low and behold, the bed had only been straightened (sheets NOT changed!) from the previous guest. Appalling! I was moved quickly to another room, which appeared to be clean. But the damage was done. The manager also apologized the next day, was very friendly and told me to come to him if I need anything.The eggs were very dry, bacon seemed very cheap and a little undercooked. Thursday morning was the only day the eggs were not dry and were actually quite good. The milk was kept in a small fridge on the floor, which was very difficult for me to reach, being 5'11More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r568307112-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568307112</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Last minute hotel change and it was a great experience</t>
+  </si>
+  <si>
+    <t>Great experience after short notice.  We were traveling as a group for business and we needed a hotel quickly.  I was able to book on Sunday and check-in on Monday.  The hotel was great and I normally have a hard time sleeping in hotels, but not Home2 Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Great experience after short notice.  We were traveling as a group for business and we needed a hotel quickly.  I was able to book on Sunday and check-in on Monday.  The hotel was great and I normally have a hard time sleeping in hotels, but not Home2 Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r567352049-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567352049</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>My experience</t>
+  </si>
+  <si>
+    <t>It was ok except for my check in experience ,I didn't appreciate having to wait 7 or 8 minutes at the desk while he was watching tv ,I had to call into front desk to get him to come answer phone so I could check inMoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>It was ok except for my check in experience ,I didn't appreciate having to wait 7 or 8 minutes at the desk while he was watching tv ,I had to call into front desk to get him to come answer phone so I could check inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r566346092-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566346092</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This place is agreat place for the family to enjoy. Love being a Hiltons member. Experience was as expected for the first time staying at the suite. Staff was nicee and very helpful and I do an staying more when Coming into town</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r562907479-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562907479</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>VERY HELPFUL STAFF,ABOVE AND BEYOND CUSTOMER STERVICE!!!</t>
+  </si>
+  <si>
+    <t>We arrived late in town for a funeral,traveling with 2 elderly people for 8 hrs.Not for a family vacation but to say goodbye to their sister who had passed last week. My husband,son and I had only booked for 1 suite,was not expecting to have a need for another suite as my in-laws had made accommodations with family members who lived in the area. But needless to say last minute those arrangements fell through. The staff was very willing to accommodate my family with a suite. No price gouging at all. No hesitation to full fill a much needed last minute reservation. Not  to mention we were given a late check out at no additional charge. Its things like these that prompts me to write reviews,when people are in need and going through great customer service should not be ignored. The breakfast was fresh and enjoyable. This hotel seem well kept and family and pet friendly. I would highly recommend this hotel to anyone that can appreciate such an experience.Thanks to the staff on duty 02/23-02/24/2018.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>We arrived late in town for a funeral,traveling with 2 elderly people for 8 hrs.Not for a family vacation but to say goodbye to their sister who had passed last week. My husband,son and I had only booked for 1 suite,was not expecting to have a need for another suite as my in-laws had made accommodations with family members who lived in the area. But needless to say last minute those arrangements fell through. The staff was very willing to accommodate my family with a suite. No price gouging at all. No hesitation to full fill a much needed last minute reservation. Not  to mention we were given a late check out at no additional charge. Its things like these that prompts me to write reviews,when people are in need and going through great customer service should not be ignored. The breakfast was fresh and enjoyable. This hotel seem well kept and family and pet friendly. I would highly recommend this hotel to anyone that can appreciate such an experience.Thanks to the staff on duty 02/23-02/24/2018.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r560298575-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560298575</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Volleyball weekend</t>
+  </si>
+  <si>
+    <t>Nice hotel. I like staying in the Hilton chain, you can never go wrong. Very nice accommodations and exactly what we needed for a Volleyball weekend away from home.. the rooms were comfortable and quiet. Really can’t beat that!MoreShow less</t>
+  </si>
+  <si>
+    <t>Yousuf Z, Front Office Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel. I like staying in the Hilton chain, you can never go wrong. Very nice accommodations and exactly what we needed for a Volleyball weekend away from home.. the rooms were comfortable and quiet. Really can’t beat that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r558688816-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558688816</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Great place a quiet area</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. Quiet area, very safe, nice outdoor spaces, and a friendly and attentive staff. The breakfast was good. I enjoyed the wine and appetizers in the evening. The rooms were spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>Josh A, General Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. Quiet area, very safe, nice outdoor spaces, and a friendly and attentive staff. The breakfast was good. I enjoyed the wine and appetizers in the evening. The rooms were spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r555050414-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555050414</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Home 2 Suites - Awesome</t>
+  </si>
+  <si>
+    <t>Great hotel. Clean room and awesome ammenities. Would definitely stay again. Breakfast was good and staff was very helpful and nice. Location was perfect for our trip in Houston. Close to great restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Great hotel. Clean room and awesome ammenities. Would definitely stay again. Breakfast was good and staff was very helpful and nice. Location was perfect for our trip in Houston. Close to great restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r551832357-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551832357</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Everything was great!</t>
+  </si>
+  <si>
+    <t>This place was awesome to stay in. It was like Home away from Home. My only reservation was the complimentary breakfast. It’s mainly oatmeal and orange juice. If they had an actual buffet breakfast for the guests, that would make this venue a full 10.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Josh A, General Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>This place was awesome to stay in. It was like Home away from Home. My only reservation was the complimentary breakfast. It’s mainly oatmeal and orange juice. If they had an actual buffet breakfast for the guests, that would make this venue a full 10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r551177991-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551177991</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>I was totally surprised as to how nice this place is.</t>
+  </si>
+  <si>
+    <t>Staying over at this hotel can be a pretty nice experience. By no means it is a luxury hotel but the design, architecture and functionality of the place are incredibly well though out. The lobby area has vending machines offering drinks and snacks, there are two computers available for internet access as well as a long table with electrical plugs for you to plug your laptop, phone chargers, etc. A coffee/tea machine is there 24/7 and there's even a large television screen along some nice seating areas. Outside there's an outdoor seating area with an outdoor fireplace going (which was nice since it was thirty-some degrees outside). On the inside, the hotel is just as nice and even offers some nice details. The decor is very contemporary and nicely done. The desk chair inside our room was so nice that I went to look it up on the web. (I did and found that if you want to buy one of them it will set you back about $800!).
+The inside of the single room is quite nice and planned sort of in the way you would plan an apartment in Tokyo. The work/dining table for example, has casters on it and you slide it in and out from under the cabinets as needed. There is a closet that has no doors but that's part of the design. Same thing with the shelving. Plenty of shelves to put your stuff...Staying over at this hotel can be a pretty nice experience. By no means it is a luxury hotel but the design, architecture and functionality of the place are incredibly well though out. The lobby area has vending machines offering drinks and snacks, there are two computers available for internet access as well as a long table with electrical plugs for you to plug your laptop, phone chargers, etc. A coffee/tea machine is there 24/7 and there's even a large television screen along some nice seating areas. Outside there's an outdoor seating area with an outdoor fireplace going (which was nice since it was thirty-some degrees outside). On the inside, the hotel is just as nice and even offers some nice details. The decor is very contemporary and nicely done. The desk chair inside our room was so nice that I went to look it up on the web. (I did and found that if you want to buy one of them it will set you back about $800!).The inside of the single room is quite nice and planned sort of in the way you would plan an apartment in Tokyo. The work/dining table for example, has casters on it and you slide it in and out from under the cabinets as needed. There is a closet that has no doors but that's part of the design. Same thing with the shelving. Plenty of shelves to put your stuff should your stay be a lengthy one. There is a sofa bed next to the regular queen sized bed. In front of the sofa there is an ottoman that can easily serve as a coffee table. The room has a decent sized fridge, (not those little ones you usually find), a microwave, a sink, dishes, bowls, etc (for four). The bathroom is a little cramped but nicely appointed and with a very bright white color scheme it feels alright.The rooms are very, very quiet, (something I love). You don't hear much form the outside. The window curtains roll inside rail system and are extremely efficient in blocking light from coming in. In all, this is quite a nice place and if you travel at the right time of the year you'll find that the pricing is also very good for what you get. I do recommend this place to those who travel into Houston's west side. The location is a little strange but you are within minutes to CItycentre and the Memorial City area which have tons of shopping and restaurants, movie theaters, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying over at this hotel can be a pretty nice experience. By no means it is a luxury hotel but the design, architecture and functionality of the place are incredibly well though out. The lobby area has vending machines offering drinks and snacks, there are two computers available for internet access as well as a long table with electrical plugs for you to plug your laptop, phone chargers, etc. A coffee/tea machine is there 24/7 and there's even a large television screen along some nice seating areas. Outside there's an outdoor seating area with an outdoor fireplace going (which was nice since it was thirty-some degrees outside). On the inside, the hotel is just as nice and even offers some nice details. The decor is very contemporary and nicely done. The desk chair inside our room was so nice that I went to look it up on the web. (I did and found that if you want to buy one of them it will set you back about $800!).
+The inside of the single room is quite nice and planned sort of in the way you would plan an apartment in Tokyo. The work/dining table for example, has casters on it and you slide it in and out from under the cabinets as needed. There is a closet that has no doors but that's part of the design. Same thing with the shelving. Plenty of shelves to put your stuff...Staying over at this hotel can be a pretty nice experience. By no means it is a luxury hotel but the design, architecture and functionality of the place are incredibly well though out. The lobby area has vending machines offering drinks and snacks, there are two computers available for internet access as well as a long table with electrical plugs for you to plug your laptop, phone chargers, etc. A coffee/tea machine is there 24/7 and there's even a large television screen along some nice seating areas. Outside there's an outdoor seating area with an outdoor fireplace going (which was nice since it was thirty-some degrees outside). On the inside, the hotel is just as nice and even offers some nice details. The decor is very contemporary and nicely done. The desk chair inside our room was so nice that I went to look it up on the web. (I did and found that if you want to buy one of them it will set you back about $800!).The inside of the single room is quite nice and planned sort of in the way you would plan an apartment in Tokyo. The work/dining table for example, has casters on it and you slide it in and out from under the cabinets as needed. There is a closet that has no doors but that's part of the design. Same thing with the shelving. Plenty of shelves to put your stuff should your stay be a lengthy one. There is a sofa bed next to the regular queen sized bed. In front of the sofa there is an ottoman that can easily serve as a coffee table. The room has a decent sized fridge, (not those little ones you usually find), a microwave, a sink, dishes, bowls, etc (for four). The bathroom is a little cramped but nicely appointed and with a very bright white color scheme it feels alright.The rooms are very, very quiet, (something I love). You don't hear much form the outside. The window curtains roll inside rail system and are extremely efficient in blocking light from coming in. In all, this is quite a nice place and if you travel at the right time of the year you'll find that the pricing is also very good for what you get. I do recommend this place to those who travel into Houston's west side. The location is a little strange but you are within minutes to CItycentre and the Memorial City area which have tons of shopping and restaurants, movie theaters, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r547726460-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547726460</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Dusty</t>
+  </si>
+  <si>
+    <t>Checking in was rough as the employee seemed to be pretty upset about working on Thanksgiving. Though they say free breakfast it’s not really free as you have a fee for having more than two people in a room regardless if your room has two beds.  When we got to the room it was very dusty in the kitchen area especially the coffee machine and there was some black crumbs on the floor. The worst thing was the urine on the back of the toilet. When we called down we were told that someone was on their way. 40 minuets later still nothing. We called again and was told that the housekeeper said she was on her was when she called the first time. So we said cancel it as we didn’t want anyone in the room when we weren’t there. Of course when we return it was cleaned. The breakfast was not consistent. The their were eggs sausage and bacon the first day, but none the second. I would not recommend this hotel due to the filthy rooms and false advertising on breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Checking in was rough as the employee seemed to be pretty upset about working on Thanksgiving. Though they say free breakfast it’s not really free as you have a fee for having more than two people in a room regardless if your room has two beds.  When we got to the room it was very dusty in the kitchen area especially the coffee machine and there was some black crumbs on the floor. The worst thing was the urine on the back of the toilet. When we called down we were told that someone was on their way. 40 minuets later still nothing. We called again and was told that the housekeeper said she was on her was when she called the first time. So we said cancel it as we didn’t want anyone in the room when we weren’t there. Of course when we return it was cleaned. The breakfast was not consistent. The their were eggs sausage and bacon the first day, but none the second. I would not recommend this hotel due to the filthy rooms and false advertising on breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r547294559-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547294559</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>An Excellent Place to Stay in Houston</t>
+  </si>
+  <si>
+    <t>It was a pleasure to find this clean, well-lighted place late Sunday night. Its rooms are very functional for a business traveler like myself. Its complimentary breakfast bar was outstanding (some of the best eggs I have every had). But the best thing by far were the outstanding, friendly staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r545162369-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545162369</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, minor details let it down</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for one night, I had a north facing room (away from I10).The room was quiet but the air conditioning was not: it was very noisy.On the plus side, the rooms were large and clean - there were two queen beds, a microwave, fridge and dishwasher. A stove top is available if you wanted one.It would be suitable for an extended stay as well as a couple of nights.One other minor quibble: for an extended stay, a safe in the room is useful to store passports etc - in contrast to other extended stay rooms I have used, there was no safe in the room.In summary, I would stay here again: but I would check the A/C in the room before I unpacked my bags to see if it was noisy; if it was I'd ask for another room.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for one night, I had a north facing room (away from I10).The room was quiet but the air conditioning was not: it was very noisy.On the plus side, the rooms were large and clean - there were two queen beds, a microwave, fridge and dishwasher. A stove top is available if you wanted one.It would be suitable for an extended stay as well as a couple of nights.One other minor quibble: for an extended stay, a safe in the room is useful to store passports etc - in contrast to other extended stay rooms I have used, there was no safe in the room.In summary, I would stay here again: but I would check the A/C in the room before I unpacked my bags to see if it was noisy; if it was I'd ask for another room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r542126015-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542126015</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Light, bright, friendly, clean and environmentally conscious</t>
+  </si>
+  <si>
+    <t>Totally unexpected pleasant place - room design was efficient yet warm and comfortable.  Rooms are like efficiency apartments.  I didn't need it all this round but will remember the amenities for future.  Great effort at recycling and at energy savings.  The lobby is designed for both the business person and the family.  Fresh, self serve breakfast was just right. Staff was happy which usually translates to a well kept place with great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Josh A, General Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Totally unexpected pleasant place - room design was efficient yet warm and comfortable.  Rooms are like efficiency apartments.  I didn't need it all this round but will remember the amenities for future.  Great effort at recycling and at energy savings.  The lobby is designed for both the business person and the family.  Fresh, self serve breakfast was just right. Staff was happy which usually translates to a well kept place with great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r541896476-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541896476</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Great stay clean and friendly</t>
+  </si>
+  <si>
+    <t>Great stay, really helpful staff. Well maintained with easy parking. Also Pet friendly if that is important to you The location would be my only negative because it is effectively on the I10 feeder you do have to circle around to get in to town, also the next access to I10 is past the next junction so you have waste time crossing that if you are looking to go west. The embassy suites it has to be said is better located road wise but I liked the rooms and service more here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay, really helpful staff. Well maintained with easy parking. Also Pet friendly if that is important to you The location would be my only negative because it is effectively on the I10 feeder you do have to circle around to get in to town, also the next access to I10 is past the next junction so you have waste time crossing that if you are looking to go west. The embassy suites it has to be said is better located road wise but I liked the rooms and service more here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r540331075-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540331075</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this Home2 hotel in Houston and would definitely stay again. Very clean, well-kept hotel. Breakfast was well stocked. Top notch! When we return to Houston, we will be staying at this Home2 location.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Josh A, General Manager at Home2 Suites by Hilton Houston Energy Corridor, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this Home2 hotel in Houston and would definitely stay again. Very clean, well-kept hotel. Breakfast was well stocked. Top notch! When we return to Houston, we will be staying at this Home2 location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r537262730-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537262730</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Clean Hotel, Nice Beds - Street Noise</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it was close to the Funeral Home we were attending services for a family member.  Very Clean and nice staff - We pick an upper floor for quiet (top 5th floor) - Street noise was to the point of needing ear plugs to sleep - Hotel deducts $50.00 above room rate for 'some reason' 3 days later, correct amount has not finalized in our bank account - This is a deal breaker for any future stays at this hotel group.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it was close to the Funeral Home we were attending services for a family member.  Very Clean and nice staff - We pick an upper floor for quiet (top 5th floor) - Street noise was to the point of needing ear plugs to sleep - Hotel deducts $50.00 above room rate for 'some reason' 3 days later, correct amount has not finalized in our bank account - This is a deal breaker for any future stays at this hotel group.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r533930251-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533930251</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Stay here and you won't be disapointed</t>
+  </si>
+  <si>
+    <t>Great place, friendly staff, good wifi for free, free beer and wine at happy hour. Need I say more. Try it, you will like it. It is close to Memorial City Mall and City Center so good food is close by as well as any of your shopping needs.  The rooms are nice and big. The AC cranked and the pool was nice and clean.  This place even has two grills outside by the pool that run on propane and they are maintained by the staff. That basically means that you can go to the store and grab some steaks or chicken and take it down by the pool and grill and chill.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place, friendly staff, good wifi for free, free beer and wine at happy hour. Need I say more. Try it, you will like it. It is close to Memorial City Mall and City Center so good food is close by as well as any of your shopping needs.  The rooms are nice and big. The AC cranked and the pool was nice and clean.  This place even has two grills outside by the pool that run on propane and they are maintained by the staff. That basically means that you can go to the store and grab some steaks or chicken and take it down by the pool and grill and chill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r532202805-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532202805</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Quiet Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was very pleased with the quiet stay, considering the hotel was quite full. The room was also large; certainly more space than I needed for one person. I had never stayed in a Home2Suites before, so I was not familiar with the format. I didn't realize it was a pet friendly hotel, and it was full of pets. It does make the common areas and even the rooms have a bit of a pet smell. Although the rooms have some kitchen amenities, I would have to say I didn't think the hotel was quite as nice as newer Residence Inn hotels I have stayed at recently. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r527601208-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527601208</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I loved my stay at H2 Suites, The staff was friendly and gave excellent care to my needs.  The hotel is clean , modern, and i will for sure stay here again. My only criticism, the frozen food is over priced. They need to make the price points equivalent to the supermarket prices. The food is is not convenient if its well over priced. Other than this, a great stay. Loved, loved, loved!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r526192641-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526192641</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>Hotel appeared to be new - very bright, very clean.  Room was so quiet that it was too quiet. (I use white noise at home and had to use the television for a little noise in my room.)  If you want a really quiet room, this seems to be the place.  Breakfast was good, area was light and airy.  Parking was convenient and parking area seemed to be well lighted. If no review is complete without a complaint - there was no ice maker in the refrigerator.  Appliances and glassware sparkled. Television was large and the remote easy to use.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r522095376-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522095376</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Home2Suites this place to stay</t>
+  </si>
+  <si>
+    <t>Great facility with well appointed rooms. All the conveniences to sustain you on a lengthy business trip. Friendly and helpful staff.  Convenient to great restruants  and shopping near by.  Will check into Home2 Suites in the future.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r520315648-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520315648</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Answer to prayer!</t>
+  </si>
+  <si>
+    <t>I can't find the words to express our gratitude to this hotel and their employees that went above and beyond for their customers during a period of extreme duress.  We had to evacuate our home during Hurricane Harvey with our small dog and were at the end of our rope.  After 2.5 hours of searching for a room at various hotels, our prayers were answered at his hotel.   The staff were so patient and helpful even when they were dealing with difficult circumstances of their own but they showed up with smiles on their faces to serve others.   When food supplies were scarce and restaurants/grocery stores were closed all around them, they managed to restock their supplies and still serve breakfast, inspite of no power and flooded/ impassable roads all around them.   This hotel was a beacon of hope for us in a very difficult and scary time.   Thank you to the amazing staff of this hotel.  We are forever grateful for your generousity and tenacity in your ability to serve others during the storm!!!!    MoreShow less</t>
+  </si>
+  <si>
+    <t>I can't find the words to express our gratitude to this hotel and their employees that went above and beyond for their customers during a period of extreme duress.  We had to evacuate our home during Hurricane Harvey with our small dog and were at the end of our rope.  After 2.5 hours of searching for a room at various hotels, our prayers were answered at his hotel.   The staff were so patient and helpful even when they were dealing with difficult circumstances of their own but they showed up with smiles on their faces to serve others.   When food supplies were scarce and restaurants/grocery stores were closed all around them, they managed to restock their supplies and still serve breakfast, inspite of no power and flooded/ impassable roads all around them.   This hotel was a beacon of hope for us in a very difficult and scary time.   Thank you to the amazing staff of this hotel.  We are forever grateful for your generousity and tenacity in your ability to serve others during the storm!!!!    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r520128169-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520128169</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>MY STAY AT HOME 2 SUITES</t>
+  </si>
+  <si>
+    <t>the hotel was very good. amazing staff and very friendly. I will love to stay there again. nice location, nice food and environment. beautiful place to stay in Houston Texas. my only issue is the pets. it was during Hurricane Harvey so the place was filled with dogs. Some smelly dogs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r518969100-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518969100</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Hospitality Galore</t>
+  </si>
+  <si>
+    <t>I just spent the last two weeks here working with my team. We had six rooms and the conference center for the entire time. I cannot possibly say enough positive things about the hotel and the staff who were all positive throughout our entire stay. To include Hurricane Harvey and its aftermath, the hotel stayed high and dry. Thank You to the entire staff and management and God Bless you all!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r516427748-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516427748</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>Comfortable room with friendly staff . Hotel was in a good location for our visit and was a quiet retreat after visiting a family member in ICU. I will definitely stay at a Home 2 suite in the future .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r512444824-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512444824</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Too Pet Friendly For Me!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in late July 2017.  The property seems new, but I expect the condition to decline rapidly if management does not get a handle on day to day activities.  
+The rooms are nice and comfortable however housekeeping was mediocre.  Its an extended stay place so they don't deep clean daily.  Breakfast is nothing to write home about.  Most options require you to microwave them yourself.  There are breakfast sandwiches, oatmeal, cereal, breads, waffles, etc.  The lady working the breakfast area is actually the hardest working employee in the place.  She was very friendly.  
+The price point is great, so you have all types of guests like business professionals, family reunions, little league sports teams, etc.  
+One of my gripes is that management doesn't control the guests. 
+Management allowed kids to run around unsupervised like crazy (even in the fitness center).  
+My other gripe is that the hotel is too pet friendly!!!  Don't get me wrong. I love pets and have a dog myself.  I have even stayed in a hotels with my dog.  But, I would never bring my dog down to the breakfast area. Even though its against their documented policy, this happened daily during my stay.  One guest in particular was a repeat offender.  After taking her dogs out for their morning ritual, she was repeatedly observed going directly into the breakfast area.  The dogs were seen sniffing/licking at dinner ware.  My wife and...I stayed at this hotel in late July 2017.  The property seems new, but I expect the condition to decline rapidly if management does not get a handle on day to day activities.  The rooms are nice and comfortable however housekeeping was mediocre.  Its an extended stay place so they don't deep clean daily.  Breakfast is nothing to write home about.  Most options require you to microwave them yourself.  There are breakfast sandwiches, oatmeal, cereal, breads, waffles, etc.  The lady working the breakfast area is actually the hardest working employee in the place.  She was very friendly.  The price point is great, so you have all types of guests like business professionals, family reunions, little league sports teams, etc.  One of my gripes is that management doesn't control the guests. Management allowed kids to run around unsupervised like crazy (even in the fitness center).  My other gripe is that the hotel is too pet friendly!!!  Don't get me wrong. I love pets and have a dog myself.  I have even stayed in a hotels with my dog.  But, I would never bring my dog down to the breakfast area. Even though its against their documented policy, this happened daily during my stay.  One guest in particular was a repeat offender.  After taking her dogs out for their morning ritual, she was repeatedly observed going directly into the breakfast area.  The dogs were seen sniffing/licking at dinner ware.  My wife and I complained to the front desk three times and nothing was ever done to correct the situation.  Unless something drastically changes, I expect this property to go down hill quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in late July 2017.  The property seems new, but I expect the condition to decline rapidly if management does not get a handle on day to day activities.  
+The rooms are nice and comfortable however housekeeping was mediocre.  Its an extended stay place so they don't deep clean daily.  Breakfast is nothing to write home about.  Most options require you to microwave them yourself.  There are breakfast sandwiches, oatmeal, cereal, breads, waffles, etc.  The lady working the breakfast area is actually the hardest working employee in the place.  She was very friendly.  
+The price point is great, so you have all types of guests like business professionals, family reunions, little league sports teams, etc.  
+One of my gripes is that management doesn't control the guests. 
+Management allowed kids to run around unsupervised like crazy (even in the fitness center).  
+My other gripe is that the hotel is too pet friendly!!!  Don't get me wrong. I love pets and have a dog myself.  I have even stayed in a hotels with my dog.  But, I would never bring my dog down to the breakfast area. Even though its against their documented policy, this happened daily during my stay.  One guest in particular was a repeat offender.  After taking her dogs out for their morning ritual, she was repeatedly observed going directly into the breakfast area.  The dogs were seen sniffing/licking at dinner ware.  My wife and...I stayed at this hotel in late July 2017.  The property seems new, but I expect the condition to decline rapidly if management does not get a handle on day to day activities.  The rooms are nice and comfortable however housekeeping was mediocre.  Its an extended stay place so they don't deep clean daily.  Breakfast is nothing to write home about.  Most options require you to microwave them yourself.  There are breakfast sandwiches, oatmeal, cereal, breads, waffles, etc.  The lady working the breakfast area is actually the hardest working employee in the place.  She was very friendly.  The price point is great, so you have all types of guests like business professionals, family reunions, little league sports teams, etc.  One of my gripes is that management doesn't control the guests. Management allowed kids to run around unsupervised like crazy (even in the fitness center).  My other gripe is that the hotel is too pet friendly!!!  Don't get me wrong. I love pets and have a dog myself.  I have even stayed in a hotels with my dog.  But, I would never bring my dog down to the breakfast area. Even though its against their documented policy, this happened daily during my stay.  One guest in particular was a repeat offender.  After taking her dogs out for their morning ritual, she was repeatedly observed going directly into the breakfast area.  The dogs were seen sniffing/licking at dinner ware.  My wife and I complained to the front desk three times and nothing was ever done to correct the situation.  Unless something drastically changes, I expect this property to go down hill quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r507648777-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507648777</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>This hotel was close to great restaurants and shopping centers. The room/hotel was well worth the price. We had plenty of room for our girls' weekend away and had an amazing stay. We will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was close to great restaurants and shopping centers. The room/hotel was well worth the price. We had plenty of room for our girls' weekend away and had an amazing stay. We will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r505235773-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505235773</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Best bang for your buck!</t>
+  </si>
+  <si>
+    <t>It was myself and my family that stayed.  2 of our kids have autism.  We all had an awesome stay! The staff was fantastic and very pleasant!  It was well worth the money.  We had just come from a rival hotel and it didn't even compare to how great this one was.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was myself and my family that stayed.  2 of our kids have autism.  We all had an awesome stay! The staff was fantastic and very pleasant!  It was well worth the money.  We had just come from a rival hotel and it didn't even compare to how great this one was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r504075543-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504075543</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff, close to restaurants</t>
+  </si>
+  <si>
+    <t>This location is surrounded by a good selection of restaurants within 5 miles.  The area is close to a highway, but was still quit peaceful somehow.  The staff there was very friendly and helpful.  The patrons were mostly business professionals. My room was nice and roomy.  The kitchenette did not have a stovetop, but did offer fridge, microwave and dishes.MoreShow less</t>
+  </si>
+  <si>
+    <t>This location is surrounded by a good selection of restaurants within 5 miles.  The area is close to a highway, but was still quit peaceful somehow.  The staff there was very friendly and helpful.  The patrons were mostly business professionals. My room was nice and roomy.  The kitchenette did not have a stovetop, but did offer fridge, microwave and dishes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r503278605-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503278605</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed at the Houston location for a family reunion. The breakfast was good, rooms were nice, the staff was helpful, and there was always plenty of paring available. We enjoyed our stay and had no real complaints!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Houston location for a family reunion. The breakfast was good, rooms were nice, the staff was helpful, and there was always plenty of paring available. We enjoyed our stay and had no real complaints!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r498641879-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498641879</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Not Trustworthy</t>
+  </si>
+  <si>
+    <t>Forgot our expensive Nikon Camera and Sony Video in our hotel room. Called lost and found and it was not returned! Would not recommend this Hotel. They can not be trusted!!! Will not be going back. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Forgot our expensive Nikon Camera and Sony Video in our hotel room. Called lost and found and it was not returned! Would not recommend this Hotel. They can not be trusted!!! Will not be going back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r498013190-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498013190</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>in and out to Houston</t>
+  </si>
+  <si>
+    <t>the hotel was nice but there isn't any restaurants in walking distance from hotel. we enjoyed our stay. a walmart is about a mile away in case you need to pick up anything. no complaints great stay good location right off the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>the hotel was nice but there isn't any restaurants in walking distance from hotel. we enjoyed our stay. a walmart is about a mile away in case you need to pick up anything. no complaints great stay good location right off the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r497487321-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497487321</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Tournament needs to have better access to coins and need conference rooms where teams can utilize for there team lunches instead of taking over the whole lobby area where no one else can find areas for there teamsMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Tournament needs to have better access to coins and need conference rooms where teams can utilize for there team lunches instead of taking over the whole lobby area where no one else can find areas for there teamsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r495038695-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495038695</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Yay a hotel that offers recycling!</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel, with great amenities and environmentally friendly.  It's a great place to stay if you are looking for a hotel that provides these benefits.  It even had recycling in the room!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel, with great amenities and environmentally friendly.  It's a great place to stay if you are looking for a hotel that provides these benefits.  It even had recycling in the room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r493954313-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493954313</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>New and clean</t>
+  </si>
+  <si>
+    <t>Visited with family for one night, staff is friendly and welcoming. Rooms are spacious and clean, everything you need is in the room with the bonus of a full kitchen! The beds are really comfortable and we slept really well on it. No noise from the surrounding areas. There's an outdoor swimming pool that is also clean and wellmaintained. Would have easily got a 5 stars if it wasn't because of the breakfast, unfortunately the choice of hot meals was poor. Would have loved some simply scramble eggs, sausage/patties or bacon like in most of the hotels and generally the choice of cold food was poor too. Although I have to admit that everything in the breakfast area was refilled quickly and the lady working there was helpful and friendly.Would I come back again? Certainly (I'd just go elsewhere for breakfast), it's spacious clean and very comfortable beds. Also having a full kitchen means that I can always grab takeaways for longer stay and warm it or store it as it comes with a full size fridge!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Visited with family for one night, staff is friendly and welcoming. Rooms are spacious and clean, everything you need is in the room with the bonus of a full kitchen! The beds are really comfortable and we slept really well on it. No noise from the surrounding areas. There's an outdoor swimming pool that is also clean and wellmaintained. Would have easily got a 5 stars if it wasn't because of the breakfast, unfortunately the choice of hot meals was poor. Would have loved some simply scramble eggs, sausage/patties or bacon like in most of the hotels and generally the choice of cold food was poor too. Although I have to admit that everything in the breakfast area was refilled quickly and the lady working there was helpful and friendly.Would I come back again? Certainly (I'd just go elsewhere for breakfast), it's spacious clean and very comfortable beds. Also having a full kitchen means that I can always grab takeaways for longer stay and warm it or store it as it comes with a full size fridge!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r493009310-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493009310</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Great staff-very friendly and helpful,  good rooms and nice fitness center. Not enough sound proofing for the rooms but it wasn't horrible. Rooms had lots of space and everything we  needed.   Would stay here again in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great staff-very friendly and helpful,  good rooms and nice fitness center. Not enough sound proofing for the rooms but it wasn't horrible. Rooms had lots of space and everything we  needed.   Would stay here again in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r492355436-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492355436</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>One of the best places we've stayed at</t>
+  </si>
+  <si>
+    <t>The room and bathroom were clean, spacious (I mean, very spacious!), and in pretty much every way flawless. When we go back to Houston, this will be at the top of our list for places to stay. Staff was very friendly as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>The room and bathroom were clean, spacious (I mean, very spacious!), and in pretty much every way flawless. When we go back to Houston, this will be at the top of our list for places to stay. Staff was very friendly as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r488958145-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488958145</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>New, clean and good value for money</t>
+  </si>
+  <si>
+    <t>The hotel facilities are new and nice. staff are generally helpful and courteous. The location is very convenient and easily accessible. several nice choice restaurant close by. will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel facilities are new and nice. staff are generally helpful and courteous. The location is very convenient and easily accessible. several nice choice restaurant close by. will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r488102302-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488102302</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay at the hotel and was very relaxed when we left. It was a birthday celebration for me and what a good time. The facility is very clean and so accommodating. I did not have time to use the exercise room or the pool but do intend to the next trip in July. Thanks for such a good time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay at the hotel and was very relaxed when we left. It was a birthday celebration for me and what a good time. The facility is very clean and so accommodating. I did not have time to use the exercise room or the pool but do intend to the next trip in July. Thanks for such a good time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r487187988-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487187988</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Enjoyed staying at this hotel! I will definitely stay their again! The price was budget friendly and the service was top notch. Access to site was easy and getting around Houston from the location was a breaze.MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed staying at this hotel! I will definitely stay their again! The price was budget friendly and the service was top notch. Access to site was easy and getting around Houston from the location was a breaze.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r487097783-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487097783</t>
+  </si>
+  <si>
+    <t>Great room but noisy and amenities were poor</t>
+  </si>
+  <si>
+    <t>TV reception was fuzzy the majority of hours.  Breakfast was OK.  It didn't help with the experience to have hotel alarms going off.  Nice rooms are set up but the hotel is designed oddly where you HAVE to take the elevator you can't take the stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>TV reception was fuzzy the majority of hours.  Breakfast was OK.  It didn't help with the experience to have hotel alarms going off.  Nice rooms are set up but the hotel is designed oddly where you HAVE to take the elevator you can't take the stairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r484730112-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484730112</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel In Hilton Brand</t>
+  </si>
+  <si>
+    <t>I live in hotels for work and this is the worst hotel I have ever stayed in over the past five years.  It was chaos and when reported due to lack of sleep while working 12 hour days, the receptionist laughed and said it was a bit of a madhouse.  Will not be back even though location was convenient!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>I live in hotels for work and this is the worst hotel I have ever stayed in over the past five years.  It was chaos and when reported due to lack of sleep while working 12 hour days, the receptionist laughed and said it was a bit of a madhouse.  Will not be back even though location was convenient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r480415166-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480415166</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>The stay was very nice. The breakfast was great. The staff was great. No restaurants in walking distance. No bar in walking distance. Very nice stay. A car is necessary to get around. The staff was great the gym was great and the entire stay was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The stay was very nice. The breakfast was great. The staff was great. No restaurants in walking distance. No bar in walking distance. Very nice stay. A car is necessary to get around. The staff was great the gym was great and the entire stay was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r480094020-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480094020</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Good value for price</t>
+  </si>
+  <si>
+    <t>Overall the experience was great. The hotel is very nice including our room. The beds were nice, probably the most comfortable I've slept in at any hotel. The sheets were very soft, very pleasant sleep. The breakfast was pretty standard to other hotels offering complimentary breakfast. It was a little disappointing compared to the quality of everything else. MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall the experience was great. The hotel is very nice including our room. The beds were nice, probably the most comfortable I've slept in at any hotel. The sheets were very soft, very pleasant sleep. The breakfast was pretty standard to other hotels offering complimentary breakfast. It was a little disappointing compared to the quality of everything else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r477864290-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477864290</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent place</t>
+  </si>
+  <si>
+    <t>Welcoming environment and excellent hotel with great spirit of hospitality on the part of the staff. However, attention should be placed on little things such as the decorating duvets and pillows which were not changed obviously from the last guest or two!MoreShow less</t>
+  </si>
+  <si>
+    <t>Welcoming environment and excellent hotel with great spirit of hospitality on the part of the staff. However, attention should be placed on little things such as the decorating duvets and pillows which were not changed obviously from the last guest or two!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r473646267-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473646267</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Breafast could be way better. The save in the price of the stay would lead to go out and pay for breakfast. The rooms were very spacious and clean. My family and I are big on breakfast so that was actually our only disappointment.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Breafast could be way better. The save in the price of the stay would lead to go out and pay for breakfast. The rooms were very spacious and clean. My family and I are big on breakfast so that was actually our only disappointment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r473439276-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473439276</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Family Wedding in Houston</t>
+  </si>
+  <si>
+    <t>My wife, kids and I travelled to Houston for my niece's wedding, we stayed in the home 2 Suites by Hilton and we had a blast.  The hotel has not been open that long and it is as you would expect, in immaculate condition.  We booked 2 twin bed suites and the rooms are extremely spacious and well equipped.  The buffet breakfast was extremely good and all the staff (particularly Dan and Desiree) extremely friendly.You can catch some rays out the front of the hotel and there is a pool at the back which is shaded from the sun almost all day which, (as we live in the U.K. and don't get much sun!) was a pity.The hotel is located les than 10 minutes from Memorial City and about 25 minutes from the Galleria so ideally situated for a bit of shopping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife, kids and I travelled to Houston for my niece's wedding, we stayed in the home 2 Suites by Hilton and we had a blast.  The hotel has not been open that long and it is as you would expect, in immaculate condition.  We booked 2 twin bed suites and the rooms are extremely spacious and well equipped.  The buffet breakfast was extremely good and all the staff (particularly Dan and Desiree) extremely friendly.You can catch some rays out the front of the hotel and there is a pool at the back which is shaded from the sun almost all day which, (as we live in the U.K. and don't get much sun!) was a pity.The hotel is located les than 10 minutes from Memorial City and about 25 minutes from the Galleria so ideally situated for a bit of shopping.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r472559952-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472559952</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Quick stay before cruise</t>
+  </si>
+  <si>
+    <t>Hotel was clean and updated. Nicely furnished and modern. The beds and pillows were comfortable. Complimentary internet service was plenty fast.  The continental breakfast left a lot to be desired, though. I don't expect much from it, but the bread was stale and the microwavable sandwiches tasteless.  Limited options are fine, but they should at least be a decent quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was clean and updated. Nicely furnished and modern. The beds and pillows were comfortable. Complimentary internet service was plenty fast.  The continental breakfast left a lot to be desired, though. I don't expect much from it, but the bread was stale and the microwavable sandwiches tasteless.  Limited options are fine, but they should at least be a decent quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r471683587-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471683587</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Clean nice place very nice staff! Love the full kitchen. Was quit and roomy. Pool was warm for kids to swim on sat by the for pit late at night and enjoyed the weather. If eve back in Houston I will stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Clean nice place very nice staff! Love the full kitchen. Was quit and roomy. Pool was warm for kids to swim on sat by the for pit late at night and enjoyed the weather. If eve back in Houston I will stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r471267345-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471267345</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel in the area</t>
+  </si>
+  <si>
+    <t>I was there on business and i can't imagine a better place to get some work done.  The rooms are spacious, there are 2 desks, a full sized refrigerator, microwave, sink and dishwasher.  The staff is beyond friendly and will do anything possible to make your stay as pleasant as possible.  When you are going to work, you don't really expect to enjoy your stay, however, at this hotel......you can work and have an enjoyable experience. Apparently it is an awesome place for families also.  There were groups there for a volleyball tournament and the girls had a good time at the pool and just hanging out in the lobby.  Not only was the staff way above average, the other guests in the hotel were delightful.  I wish there were 6 stars.....this hotel would get 6!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was there on business and i can't imagine a better place to get some work done.  The rooms are spacious, there are 2 desks, a full sized refrigerator, microwave, sink and dishwasher.  The staff is beyond friendly and will do anything possible to make your stay as pleasant as possible.  When you are going to work, you don't really expect to enjoy your stay, however, at this hotel......you can work and have an enjoyable experience. Apparently it is an awesome place for families also.  There were groups there for a volleyball tournament and the girls had a good time at the pool and just hanging out in the lobby.  Not only was the staff way above average, the other guests in the hotel were delightful.  I wish there were 6 stars.....this hotel would get 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r470632535-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470632535</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Hilton! The best!</t>
+  </si>
+  <si>
+    <t>Excellent stay.  I love Hilton Chain Hotels.  I would defenetly recommend the stay at this hotel.  They have great customer service and rooms are very clean.  Also, swimming pool is nice to dive in.  Great stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent stay.  I love Hilton Chain Hotels.  I would defenetly recommend the stay at this hotel.  They have great customer service and rooms are very clean.  Also, swimming pool is nice to dive in.  Great stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r469764668-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469764668</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Convenient and Clean</t>
+  </si>
+  <si>
+    <t>We recently completed a stay with extended family from out of state.  We reserved two rooms, each with two queens and a sleeper sofa, which was perfect for the size of our group.  The rooms were clean as was the hotel property in general.  The location was convenient to the highway and several shops and restaurants.  Also, the front desk staff was very attentive and courteous.  I would highly recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently completed a stay with extended family from out of state.  We reserved two rooms, each with two queens and a sleeper sofa, which was perfect for the size of our group.  The rooms were clean as was the hotel property in general.  The location was convenient to the highway and several shops and restaurants.  Also, the front desk staff was very attentive and courteous.  I would highly recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r468999205-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468999205</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was perfect.  Staff was very nice and professional as well. Super clean modern and new. Only problem I had was that I booked two double beds and they were out of them when I arrived. We were still able to get a good night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was perfect.  Staff was very nice and professional as well. Super clean modern and new. Only problem I had was that I booked two double beds and they were out of them when I arrived. We were still able to get a good night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r468407146-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468407146</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Customer Service for the Win!</t>
+  </si>
+  <si>
+    <t>Alot of hotels in the area boast having great customer service, the thing is they don't. We stayed at this hotel after having bad experiences with others close by. I am glad we did! I can't say enough how great everyone was at the front desk. The helped in any way possible. With directions to a local restaurant up to getting a toothbrush for my son who dropped his in the toilet. They truly care about their job and it shows. The complimentary breakfast was top notch. The refilled everything promptly never letting anything get low or empty. I was ver surprised and how smoothly and efficiently everything went. Congratulations guys. I'll be backMoreShow less</t>
+  </si>
+  <si>
+    <t>Alot of hotels in the area boast having great customer service, the thing is they don't. We stayed at this hotel after having bad experiences with others close by. I am glad we did! I can't say enough how great everyone was at the front desk. The helped in any way possible. With directions to a local restaurant up to getting a toothbrush for my son who dropped his in the toilet. They truly care about their job and it shows. The complimentary breakfast was top notch. The refilled everything promptly never letting anything get low or empty. I was ver surprised and how smoothly and efficiently everything went. Congratulations guys. I'll be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r467658147-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467658147</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Excellent, the staff was amazing and the rooms were gorgeous. They were decorated flawlessly and the bed was soft.  I will definitely visit this location again.  So ill give the overall a FIVE STAR rating MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent, the staff was amazing and the rooms were gorgeous. They were decorated flawlessly and the bed was soft.  I will definitely visit this location again.  So ill give the overall a FIVE STAR rating More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r467401185-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467401185</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>business trip</t>
+  </si>
+  <si>
+    <t>enjoyed the  new hotel. good location for dinners easy off Highway to find. friendly and helpful staff! I'll be back. sleeping was great good size room near Starbucks would have stayed longer if time providedMoreShow less</t>
+  </si>
+  <si>
+    <t>enjoyed the  new hotel. good location for dinners easy off Highway to find. friendly and helpful staff! I'll be back. sleeping was great good size room near Starbucks would have stayed longer if time providedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r464201416-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464201416</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>My friends and I decided to come to Houston to celebrate my 25th birthday and we wanted the perfect hotel to stay in and this one just so happen to be it. The hotel was great everyone was friendly and the rooms were perfect. I will most definitely be visiting again soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>My friends and I decided to come to Houston to celebrate my 25th birthday and we wanted the perfect hotel to stay in and this one just so happen to be it. The hotel was great everyone was friendly and the rooms were perfect. I will most definitely be visiting again soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r462585839-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462585839</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Gymnastics Trip to Houston</t>
+  </si>
+  <si>
+    <t>Welcoming staff at check in. The room was clean and the bed was comfortable. The wifi was a bit difficult to get set up. The breakfast was surprisingly below average. Probably staying again in the near future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Welcoming staff at check in. The room was clean and the bed was comfortable. The wifi was a bit difficult to get set up. The breakfast was surprisingly below average. Probably staying again in the near future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r462376217-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462376217</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Close to IH-10 and Comfy</t>
+  </si>
+  <si>
+    <t>Large, comfortable rooms with ample space and small kitchenette (no stove) with dishwasher and fridge.  Good beds and great iron and counter space.  A little noisy from the IH-10 traffic, but not that badMoreShow less</t>
+  </si>
+  <si>
+    <t>Large, comfortable rooms with ample space and small kitchenette (no stove) with dishwasher and fridge.  Good beds and great iron and counter space.  A little noisy from the IH-10 traffic, but not that badMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r462196518-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462196518</t>
+  </si>
+  <si>
+    <t>Hospitality was great</t>
+  </si>
+  <si>
+    <t>This hotel was great for a business stay. It has one of the best fitness centers I have seen. Christopher at the front desk was excellent. He was great at getting people checked in at a busy time. Even with a multiple person line the wait was minimal. This hotel is on my short list for future business trips to the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was great for a business stay. It has one of the best fitness centers I have seen. Christopher at the front desk was excellent. He was great at getting people checked in at a busy time. Even with a multiple person line the wait was minimal. This hotel is on my short list for future business trips to the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r458093880-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458093880</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel great staff. The night guy is cool   Will definitely stay here again. In Houston regularly for business. Spacious rooms with all the necessary amenities. I'm not writing randomness to fill necessary characters.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel great staff. The night guy is cool   Will definitely stay here again. In Houston regularly for business. Spacious rooms with all the necessary amenities. I'm not writing randomness to fill necessary characters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r457047151-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457047151</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>Great hotel &amp; value</t>
+  </si>
+  <si>
+    <t>Room was very comfortable &amp; clean.  Gym facility was convenient and spacious, not alike the other "broom closets" at other hotels. I will stay at this hotel brand again.  I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was very comfortable &amp; clean.  Gym facility was convenient and spacious, not alike the other "broom closets" at other hotels. I will stay at this hotel brand again.  I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r456836773-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456836773</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>HOME2HOUSTON</t>
+  </si>
+  <si>
+    <t>I always enjoy this hotel. It's clean and the staff is very friendly. I travel a lot and when I get back in town, I usually spend one night in hotel. When I need a break, this is my place! Breakfast, coffee, and anything else I need.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I always enjoy this hotel. It's clean and the staff is very friendly. I travel a lot and when I get back in town, I usually spend one night in hotel. When I need a break, this is my place! Breakfast, coffee, and anything else I need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r451138363-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451138363</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>AWESOME!</t>
+  </si>
+  <si>
+    <t>I wish every hotel experience was this great. I was greeted at the door by the Director of Sales.  Immediately, she showed concern for how long I had been driving and was eager to make sure that my check in process was flawless. The hotel staff was friendly and very accommodating.  I am looking forward to my next stay.  I actually hate I had to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wish every hotel experience was this great. I was greeted at the door by the Director of Sales.  Immediately, she showed concern for how long I had been driving and was eager to make sure that my check in process was flawless. The hotel staff was friendly and very accommodating.  I am looking forward to my next stay.  I actually hate I had to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r448944924-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448944924</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Staff is very friendly, helpful and professional. Hotel is new and everything was nice. Bed is very comfortable. I would definitely recommend staying here and look forward to my future stays at this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Staff is very friendly, helpful and professional. Hotel is new and everything was nice. Bed is very comfortable. I would definitely recommend staying here and look forward to my future stays at this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r448753991-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448753991</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay in Houston Energy Corridor</t>
+  </si>
+  <si>
+    <t>This hotel is conviently located west of Beltway 8 a block off the I-10 access road which elimates the highway noise.  Rooms are large, clean new hotel with outstanding service.  Everyone working at reception and breakfast area were welcoming and seem to appreciate our business which was a welcome change from the service at most hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This hotel is conviently located west of Beltway 8 a block off the I-10 access road which elimates the highway noise.  Rooms are large, clean new hotel with outstanding service.  Everyone working at reception and breakfast area were welcoming and seem to appreciate our business which was a welcome change from the service at most hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r445115448-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445115448</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>Just finished hotel that's a great hotel for biz travelers</t>
+  </si>
+  <si>
+    <t>Hotel just opened up over a month ago...according to the folks that worked there...so it was in excellent condition.  Beds are really comfortable and I told my wife I'd buy the pillows and sheets for my own bed they were so cozy.  Great for the business traveler. The rooms have kitchens so it is great for a several night stay. I'll be back if the price is still good next time I'm in Houston overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Hotel just opened up over a month ago...according to the folks that worked there...so it was in excellent condition.  Beds are really comfortable and I told my wife I'd buy the pillows and sheets for my own bed they were so cozy.  Great for the business traveler. The rooms have kitchens so it is great for a several night stay. I'll be back if the price is still good next time I'm in Houston overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r444769488-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444769488</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Obnoxious level of noise from partyers</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever - hotel staff allowed guests to have a drunken, and extremely loud party that went on until 3:30 a.m. after several guests made multiple complaints.  Many guests got very little sleep that night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2016</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever - hotel staff allowed guests to have a drunken, and extremely loud party that went on until 3:30 a.m. after several guests made multiple complaints.  Many guests got very little sleep that night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r444318829-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444318829</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Family Trip</t>
+  </si>
+  <si>
+    <t>Excellent stay, great service, spacious rooms, friendly staff, would go back again. Perfect location right off the highway. Free breakfast,  new Facility,  full kitchen with dishes provided all at a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent stay, great service, spacious rooms, friendly staff, would go back again. Perfect location right off the highway. Free breakfast,  new Facility,  full kitchen with dishes provided all at a reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r439847910-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439847910</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>Love this hotel</t>
+  </si>
+  <si>
+    <t>Walked through the door and fell in love the staff was so helpful and friendly. The rooms were nice and clean. The beds were extremely comfortable . I would reccommend anyone to stay here. Great price.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Walked through the door and fell in love the staff was so helpful and friendly. The rooms were nice and clean. The beds were extremely comfortable . I would reccommend anyone to stay here. Great price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r438214937-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438214937</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!!!</t>
+  </si>
+  <si>
+    <t>It was a great experience, the rooms are very beautiful and spacious. Their staffs were very kind and helpful. I really enjoyed my stay in this hotel, it's worth coming to. I definitely recommend it to anyone. Excellent value for your money!MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a great experience, the rooms are very beautiful and spacious. Their staffs were very kind and helpful. I really enjoyed my stay in this hotel, it's worth coming to. I definitely recommend it to anyone. Excellent value for your money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10666840-r436138817-Home2_Suites_by_Hilton_Houston_Energy_Corridor-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436138817</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>1 week old</t>
+  </si>
+  <si>
+    <t>1 week old and you wouldn't know it!  Internally they may be working out some bugs, but as a traveler you probably won't notice. Plus the staff is extra friendly (Mary and the Asst.Mgr to name two).  And who doesnt like a brand new room with fresh amenities!  Thank you   MoreShow less</t>
+  </si>
+  <si>
+    <t>1 week old and you wouldn't know it!  Internally they may be working out some bugs, but as a traveler you probably won't notice. Plus the staff is extra friendly (Mary and the Asst.Mgr to name two).  And who doesnt like a brand new room with fresh amenities!  Thank you   More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2269,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2301,5805 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
+      <c r="X14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>199</v>
+      </c>
+      <c r="X21" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>246</v>
+      </c>
+      <c r="X29" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>257</v>
+      </c>
+      <c r="J30" t="s">
+        <v>258</v>
+      </c>
+      <c r="K30" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+      <c r="K34" t="s">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s">
+        <v>282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O34" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>283</v>
+      </c>
+      <c r="O35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>296</v>
+      </c>
+      <c r="J37" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s">
+        <v>298</v>
+      </c>
+      <c r="L37" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" t="s">
+        <v>314</v>
+      </c>
+      <c r="K40" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O40" t="s">
+        <v>317</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>318</v>
+      </c>
+      <c r="X40" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>318</v>
+      </c>
+      <c r="X41" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>310</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>318</v>
+      </c>
+      <c r="X42" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>335</v>
+      </c>
+      <c r="K43" t="s">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s">
+        <v>337</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>318</v>
+      </c>
+      <c r="X43" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>343</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>318</v>
+      </c>
+      <c r="X44" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K45" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s">
+        <v>350</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>351</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>352</v>
+      </c>
+      <c r="X45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" t="s">
+        <v>357</v>
+      </c>
+      <c r="K46" t="s">
+        <v>358</v>
+      </c>
+      <c r="L46" t="s">
+        <v>359</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>351</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>360</v>
+      </c>
+      <c r="X46" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>364</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>351</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>360</v>
+      </c>
+      <c r="X47" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>370</v>
+      </c>
+      <c r="J48" t="s">
+        <v>371</v>
+      </c>
+      <c r="K48" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s">
+        <v>373</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>351</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>360</v>
+      </c>
+      <c r="X48" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J49" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" t="s">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s">
+        <v>379</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>351</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>360</v>
+      </c>
+      <c r="X49" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" t="s">
+        <v>385</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>386</v>
+      </c>
+      <c r="X50" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>390</v>
+      </c>
+      <c r="J51" t="s">
+        <v>391</v>
+      </c>
+      <c r="K51" t="s">
+        <v>392</v>
+      </c>
+      <c r="L51" t="s">
+        <v>393</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>386</v>
+      </c>
+      <c r="X51" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>395</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>396</v>
+      </c>
+      <c r="J52" t="s">
+        <v>397</v>
+      </c>
+      <c r="K52" t="s">
+        <v>398</v>
+      </c>
+      <c r="L52" t="s">
+        <v>399</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>344</v>
+      </c>
+      <c r="O52" t="s">
+        <v>245</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>386</v>
+      </c>
+      <c r="X52" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>401</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>402</v>
+      </c>
+      <c r="J53" t="s">
+        <v>403</v>
+      </c>
+      <c r="K53" t="s">
+        <v>404</v>
+      </c>
+      <c r="L53" t="s">
+        <v>405</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>344</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>386</v>
+      </c>
+      <c r="X53" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" t="s">
+        <v>403</v>
+      </c>
+      <c r="K54" t="s">
+        <v>409</v>
+      </c>
+      <c r="L54" t="s">
+        <v>410</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s">
+        <v>245</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>411</v>
+      </c>
+      <c r="X54" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>344</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>419</v>
+      </c>
+      <c r="X55" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>422</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>423</v>
+      </c>
+      <c r="J56" t="s">
+        <v>424</v>
+      </c>
+      <c r="K56" t="s">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>427</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>386</v>
+      </c>
+      <c r="X56" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>432</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>386</v>
+      </c>
+      <c r="X57" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>436</v>
+      </c>
+      <c r="J58" t="s">
+        <v>437</v>
+      </c>
+      <c r="K58" t="s">
+        <v>438</v>
+      </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>386</v>
+      </c>
+      <c r="X58" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>441</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>442</v>
+      </c>
+      <c r="J59" t="s">
+        <v>443</v>
+      </c>
+      <c r="K59" t="s">
+        <v>444</v>
+      </c>
+      <c r="L59" t="s">
+        <v>445</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>446</v>
+      </c>
+      <c r="O59" t="s">
+        <v>317</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>447</v>
+      </c>
+      <c r="X59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>450</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J60" t="s">
+        <v>452</v>
+      </c>
+      <c r="K60" t="s">
+        <v>453</v>
+      </c>
+      <c r="L60" t="s">
+        <v>454</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>427</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>447</v>
+      </c>
+      <c r="X60" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>456</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>457</v>
+      </c>
+      <c r="J61" t="s">
+        <v>458</v>
+      </c>
+      <c r="K61" t="s">
+        <v>459</v>
+      </c>
+      <c r="L61" t="s">
+        <v>460</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>446</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>447</v>
+      </c>
+      <c r="X61" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>446</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>467</v>
+      </c>
+      <c r="X62" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>470</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>471</v>
+      </c>
+      <c r="J63" t="s">
+        <v>472</v>
+      </c>
+      <c r="K63" t="s">
+        <v>473</v>
+      </c>
+      <c r="L63" t="s">
+        <v>474</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>446</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>467</v>
+      </c>
+      <c r="X63" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>476</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>477</v>
+      </c>
+      <c r="J64" t="s">
+        <v>478</v>
+      </c>
+      <c r="K64" t="s">
+        <v>479</v>
+      </c>
+      <c r="L64" t="s">
+        <v>480</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>446</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>467</v>
+      </c>
+      <c r="X64" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>482</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>483</v>
+      </c>
+      <c r="J65" t="s">
+        <v>484</v>
+      </c>
+      <c r="K65" t="s">
+        <v>485</v>
+      </c>
+      <c r="L65" t="s">
+        <v>486</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>446</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>467</v>
+      </c>
+      <c r="X65" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>488</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>489</v>
+      </c>
+      <c r="J66" t="s">
+        <v>490</v>
+      </c>
+      <c r="K66" t="s">
+        <v>243</v>
+      </c>
+      <c r="L66" t="s">
+        <v>491</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>446</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>467</v>
+      </c>
+      <c r="X66" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>493</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>494</v>
+      </c>
+      <c r="J67" t="s">
+        <v>495</v>
+      </c>
+      <c r="K67" t="s">
+        <v>496</v>
+      </c>
+      <c r="L67" t="s">
+        <v>497</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>446</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>467</v>
+      </c>
+      <c r="X67" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>499</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>500</v>
+      </c>
+      <c r="J68" t="s">
+        <v>501</v>
+      </c>
+      <c r="K68" t="s">
+        <v>502</v>
+      </c>
+      <c r="L68" t="s">
+        <v>503</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>446</v>
+      </c>
+      <c r="O68" t="s">
+        <v>198</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>467</v>
+      </c>
+      <c r="X68" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>505</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>506</v>
+      </c>
+      <c r="J69" t="s">
+        <v>507</v>
+      </c>
+      <c r="K69" t="s">
+        <v>508</v>
+      </c>
+      <c r="L69" t="s">
+        <v>509</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>446</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>467</v>
+      </c>
+      <c r="X69" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>511</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>512</v>
+      </c>
+      <c r="J70" t="s">
+        <v>513</v>
+      </c>
+      <c r="K70" t="s">
+        <v>514</v>
+      </c>
+      <c r="L70" t="s">
+        <v>515</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>516</v>
+      </c>
+      <c r="O70" t="s">
+        <v>317</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>467</v>
+      </c>
+      <c r="X70" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>518</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>519</v>
+      </c>
+      <c r="J71" t="s">
+        <v>520</v>
+      </c>
+      <c r="K71" t="s">
+        <v>521</v>
+      </c>
+      <c r="L71" t="s">
+        <v>522</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>516</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>467</v>
+      </c>
+      <c r="X71" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>524</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>525</v>
+      </c>
+      <c r="J72" t="s">
+        <v>526</v>
+      </c>
+      <c r="K72" t="s">
+        <v>527</v>
+      </c>
+      <c r="L72" t="s">
+        <v>528</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>516</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>467</v>
+      </c>
+      <c r="X72" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>530</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>531</v>
+      </c>
+      <c r="J73" t="s">
+        <v>526</v>
+      </c>
+      <c r="K73" t="s">
+        <v>532</v>
+      </c>
+      <c r="L73" t="s">
+        <v>533</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>516</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>467</v>
+      </c>
+      <c r="X73" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>536</v>
+      </c>
+      <c r="J74" t="s">
+        <v>537</v>
+      </c>
+      <c r="K74" t="s">
+        <v>270</v>
+      </c>
+      <c r="L74" t="s">
+        <v>538</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>539</v>
+      </c>
+      <c r="X74" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>542</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>543</v>
+      </c>
+      <c r="J75" t="s">
+        <v>544</v>
+      </c>
+      <c r="K75" t="s">
+        <v>545</v>
+      </c>
+      <c r="L75" t="s">
+        <v>546</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>516</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>539</v>
+      </c>
+      <c r="X75" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>549</v>
+      </c>
+      <c r="J76" t="s">
+        <v>550</v>
+      </c>
+      <c r="K76" t="s">
+        <v>551</v>
+      </c>
+      <c r="L76" t="s">
+        <v>552</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>553</v>
+      </c>
+      <c r="O76" t="s">
+        <v>198</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>539</v>
+      </c>
+      <c r="X76" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>555</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>556</v>
+      </c>
+      <c r="J77" t="s">
+        <v>557</v>
+      </c>
+      <c r="K77" t="s">
+        <v>558</v>
+      </c>
+      <c r="L77" t="s">
+        <v>559</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>553</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>539</v>
+      </c>
+      <c r="X77" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>561</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>562</v>
+      </c>
+      <c r="J78" t="s">
+        <v>563</v>
+      </c>
+      <c r="K78" t="s">
+        <v>92</v>
+      </c>
+      <c r="L78" t="s">
+        <v>564</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>553</v>
+      </c>
+      <c r="O78" t="s">
+        <v>198</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>565</v>
+      </c>
+      <c r="X78" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>569</v>
+      </c>
+      <c r="J79" t="s">
+        <v>570</v>
+      </c>
+      <c r="K79" t="s">
+        <v>571</v>
+      </c>
+      <c r="L79" t="s">
+        <v>572</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>573</v>
+      </c>
+      <c r="O79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>565</v>
+      </c>
+      <c r="X79" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>575</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>576</v>
+      </c>
+      <c r="J80" t="s">
+        <v>577</v>
+      </c>
+      <c r="K80" t="s">
+        <v>578</v>
+      </c>
+      <c r="L80" t="s">
+        <v>579</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>573</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>580</v>
+      </c>
+      <c r="X80" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>583</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>584</v>
+      </c>
+      <c r="J81" t="s">
+        <v>585</v>
+      </c>
+      <c r="K81" t="s">
+        <v>586</v>
+      </c>
+      <c r="L81" t="s">
+        <v>587</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>573</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>588</v>
+      </c>
+      <c r="X81" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>591</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>592</v>
+      </c>
+      <c r="J82" t="s">
+        <v>593</v>
+      </c>
+      <c r="K82" t="s">
+        <v>594</v>
+      </c>
+      <c r="L82" t="s">
+        <v>595</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>573</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>588</v>
+      </c>
+      <c r="X82" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>597</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>598</v>
+      </c>
+      <c r="J83" t="s">
+        <v>599</v>
+      </c>
+      <c r="K83" t="s">
+        <v>600</v>
+      </c>
+      <c r="L83" t="s">
+        <v>601</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>602</v>
+      </c>
+      <c r="O83" t="s">
+        <v>245</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>588</v>
+      </c>
+      <c r="X83" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>605</v>
+      </c>
+      <c r="J84" t="s">
+        <v>606</v>
+      </c>
+      <c r="K84" t="s">
+        <v>607</v>
+      </c>
+      <c r="L84" t="s">
+        <v>608</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>602</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>588</v>
+      </c>
+      <c r="X84" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65371</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>610</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>602</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>588</v>
+      </c>
+      <c r="X85" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
